--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
   <si>
     <t>VIN</t>
   </si>
@@ -198,6 +198,42 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Arteon</t>
+  </si>
+  <si>
+    <t>Arteon SEL</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>8L V12</t>
+  </si>
+  <si>
+    <t>4WD</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>7MSRP17H&amp;V</t>
   </si>
 </sst>
 </file>
@@ -541,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1148,6 +1184,122 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <v>88888</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="3">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>214</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="3">
+        <v>4</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>20000101</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
   <si>
     <t>VIN</t>
   </si>
@@ -200,21 +200,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Arteon</t>
-  </si>
-  <si>
-    <t>Arteon SEL</t>
-  </si>
-  <si>
-    <t>Coupe</t>
-  </si>
-  <si>
-    <t>Sedan</t>
-  </si>
-  <si>
     <t>8L V12</t>
   </si>
   <si>
@@ -234,13 +219,22 @@
   </si>
   <si>
     <t>7MSRP17H&amp;V</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>HATCHBACK 4 DOOR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +256,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.4"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,11 +295,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -579,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +601,10 @@
     <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5546875" customWidth="1"/>
     <col min="15" max="15" width="18.77734375" customWidth="1"/>
     <col min="21" max="21" width="22.88671875" customWidth="1"/>
@@ -1184,27 +1199,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1213,19 +1228,19 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O6" s="3">
         <v>12</v>
@@ -1237,7 +1252,7 @@
         <v>214</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="S6" s="3">
         <v>4</v>
@@ -1261,12 +1276,12 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA6" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="5">
         <v>35</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="5">
         <v>44</v>
       </c>
       <c r="AC6" s="3" t="s">
@@ -1276,16 +1291,16 @@
         <v>39</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AI6" s="3">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -23,6 +23,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petrenko, Viktor (C)</author>
+  </authors>
+  <commentList>
+    <comment ref="AA6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Petrenko, Viktor (C):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+User for MSRP PAS-730</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
   <si>
@@ -206,9 +240,6 @@
     <t>4WD</t>
   </si>
   <si>
-    <t>GC</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -228,13 +259,16 @@
   </si>
   <si>
     <t>HATCHBACK 4 DOOR</t>
+  </si>
+  <si>
+    <t>RT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +295,19 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -588,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1248,7 @@
     </row>
     <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -1210,16 +1257,16 @@
         <v>2015</v>
       </c>
       <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1228,13 +1275,13 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1276,7 +1323,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="5">
         <v>35</v>
@@ -1291,16 +1338,16 @@
         <v>39</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AI6" s="3">
         <v>20000101</v>
@@ -1318,5 +1365,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>7MSRP17H&amp;V</t>
-  </si>
-  <si>
     <t>VOLKSWAGEN</t>
   </si>
   <si>
@@ -262,13 +259,16 @@
   </si>
   <si>
     <t>RT</t>
+  </si>
+  <si>
+    <t>7MSRP15H&amp;V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.4"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -310,7 +304,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -342,17 +330,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -638,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,9 +1228,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -1256,17 +1238,17 @@
       <c r="C6" s="3">
         <v>2015</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1274,14 +1256,14 @@
       <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" t="s">
-        <v>66</v>
+      <c r="J6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1323,12 +1305,12 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="5">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="3">
         <v>35</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="3">
         <v>44</v>
       </c>
       <c r="AC6" s="3" t="s">

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
   <si>
     <t>VIN</t>
   </si>
@@ -240,15 +240,6 @@
     <t>4WD</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>VOLKSWAGEN</t>
   </si>
   <si>
@@ -262,6 +253,9 @@
   </si>
   <si>
     <t>7MSRP15H&amp;V</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -620,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1224,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -1239,16 +1233,16 @@
         <v>2015</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1257,13 +1251,13 @@
         <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1305,7 +1299,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="3">
         <v>35</v>
@@ -1320,16 +1314,16 @@
         <v>39</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="3">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
         <v>38</v>
       </c>
       <c r="AI2" s="3">
-        <v>20150101</v>
+        <v>20000101</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>39</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
   <si>
     <t>VIN</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1186,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="3">
         <v>42</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
   <si>
     <t>VIN</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>invalidVIN</t>
+  </si>
+  <si>
+    <t>SecondValid</t>
+  </si>
+  <si>
+    <t>ThirdValid</t>
   </si>
 </sst>
 </file>
@@ -617,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +874,7 @@
         <v>38</v>
       </c>
       <c r="AI2" s="3">
-        <v>20000101</v>
+        <v>20010101</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>39</v>
@@ -894,7 +903,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1010,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1126,7 +1135,7 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>60</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>60</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -627,7 +627,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,16 +862,16 @@
         <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AI2" s="3">
         <v>20010101</v>
@@ -1094,16 +1094,16 @@
         <v>39</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AI4" s="3">
         <v>20150101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
     <t>VIN</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>ThirdValid</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
   </si>
 </sst>
 </file>
@@ -627,34 +630,34 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.77734375" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.21875" customWidth="1"/>
-    <col min="28" max="29" width="13.77734375" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="34.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="28" max="29" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" customWidth="1"/>
+    <col min="36" max="36" width="21.85546875" customWidth="1"/>
+    <col min="38" max="38" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,7 +773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -781,10 +784,10 @@
         <v>2005</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -886,7 +889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/AddedVIN_UT_SS.xlsx
@@ -630,7 +630,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
